--- a/outputs-HGR-r202/g__Clostridium_A.xlsx
+++ b/outputs-HGR-r202/g__Clostridium_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19947.fa</t>
+          <t>even_MAG-GUT18526.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53065.fa</t>
+          <t>even_MAG-GUT19947.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -533,7 +533,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60874.fa</t>
+          <t>even_MAG-GUT53065.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7733.fa</t>
+          <t>even_MAG-GUT60874.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -579,21 +579,90 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT61416.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7733.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85136.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9681.fa</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>s__Clostridium_A leptum</t>
         </is>

--- a/outputs-HGR-r202/g__Clostridium_A.xlsx
+++ b/outputs-HGR-r202/g__Clostridium_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>s__Clostridium_A leptum</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>s__Clostridium_A leptum</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>s__Clostridium_A leptum</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>s__Clostridium_A leptum</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>s__Clostridium_A leptum</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>s__Clostridium_A leptum</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>s__Clostridium_A leptum</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>s__Clostridium_A leptum</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>s__Clostridium_A leptum</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -631,6 +681,11 @@
         <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>s__Clostridium_A leptum</t>
         </is>

--- a/outputs-HGR-r202/g__Clostridium_A.xlsx
+++ b/outputs-HGR-r202/g__Clostridium_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>0.01885178513548347</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>s__Clostridium_A leptum</t>
         </is>
@@ -491,19 +483,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>-0.189169470233276</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
+          <t>s__Clostridium_A leptum(reject)</t>
         </is>
       </c>
     </row>
@@ -514,19 +503,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>-0.28751753218625</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
+          <t>s__Clostridium_A leptum(reject)</t>
         </is>
       </c>
     </row>
@@ -537,155 +523,74 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>-0.1570692448121331</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
+          <t>s__Clostridium_A leptum(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58318.fa</t>
+          <t>even_MAG-GUT60874.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>-0.1850295281991059</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
+          <t>s__Clostridium_A leptum(reject)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60874.fa</t>
+          <t>even_MAG-GUT7733.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>-0.3097656684679784</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
+          <t>s__Clostridium_A leptum(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61416.fa</t>
+          <t>even_MAG-GUT9681.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>0.04280660223353294</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>s__Clostridium_A leptum</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7733.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85136.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9681.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>s__Clostridium_A leptum</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>s__Clostridium_A leptum</t>
         </is>
